--- a/team_specific_matrix/Crown (MN)_B.xlsx
+++ b/team_specific_matrix/Crown (MN)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
   </sheetData>
